--- a/SPPSApi/Doc/Template/FS0805_Print.xlsx
+++ b/SPPSApi/Doc/Template/FS0805_Print.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>包装场：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFTM包装场：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流业者：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,11 +180,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,6 +199,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="7486650"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="7486650"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="7486650"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="7486650"/>
+          <a:ext cx="1504950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,90 +671,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="24.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -573,22 +770,35 @@
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -607,6 +817,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
